--- a/doc/引擎规格说明.xlsx
+++ b/doc/引擎规格说明.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double保留两位小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float保留两位小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果完成42%，则值为0.42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +116,6 @@
   </si>
   <si>
     <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double保留六位小数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,12 +341,24 @@
     <t>米或者毫秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +511,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,18 +529,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,65 +822,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -887,19 +892,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -917,22 +922,22 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="54">
+    <row r="6" spans="2:10" ht="56">
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -941,172 +946,172 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="G12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -1114,85 +1119,85 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="28">
+      <c r="B17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" ht="27">
-      <c r="B17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="G18" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>9</v>
@@ -1202,33 +1207,33 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="G20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="G20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -1237,48 +1242,48 @@
     </row>
     <row r="23" spans="2:10">
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10">
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" ht="27">
+    <row r="25" spans="2:10" ht="28">
       <c r="G25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="G26" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>9</v>
@@ -1288,33 +1293,33 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="G28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>9</v>
@@ -1323,25 +1328,25 @@
     </row>
     <row r="31" spans="2:10">
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10">
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1350,35 +1355,35 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" ht="28">
+      <c r="G34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" ht="40.5">
-      <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>9</v>
@@ -1398,34 +1403,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>